--- a/tools/anssi/anssi-rec-secu-interco-si-internet.xlsx
+++ b/tools/anssi/anssi-rec-secu-interco-si-internet.xlsx
@@ -129,7 +129,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>R --,R-,R,R+</t>
+    <t>R--,R-,R,R+</t>
   </si>
   <si>
     <t>R1</t>
@@ -318,7 +318,7 @@
     <t>Cas 2 : mutualisation physique de la commutation réseau</t>
   </si>
   <si>
-    <t>R --,R-</t>
+    <t>R--,R-</t>
   </si>
   <si>
     <t>R12 (-)</t>
@@ -931,7 +931,7 @@
     <t>Cette recommandation permet de mettre en œuvre une première alternative, d’un niveaude sécurité moindre que la recommandation R.</t>
   </si>
   <si>
-    <t>R --</t>
+    <t>R--</t>
   </si>
   <si>
     <t>Recommandation alternative de second niveau</t>
